--- a/xlsx/metrics.xlsx
+++ b/xlsx/metrics.xlsx
@@ -1,14 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\articles\2024\MuTChatbots\paper\material\Chatbots\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19C2C545-0C42-4CEB-9F03-B36986182BAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCA609CF-99BB-4DF6-B0DF-C81309499111}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
